--- a/target/test-classes/data/AdactinHotelData.xlsx
+++ b/target/test-classes/data/AdactinHotelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srije\eclipse-workspace\AdactinHotel\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E806886-F178-4218-A3AC-ACB02546CEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146FBD9E-A178-4D20-AF68-5AC3C3BA6456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D760F9DC-97CA-4717-8B56-B587B60344B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{D760F9DC-97CA-4717-8B56-B587B60344B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Email Address is Empty</t>
   </si>
   <si>
-    <t>sri.jeya@kmail.com</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -802,7 +799,10 @@
     <t>locator</t>
   </si>
   <si>
-    <t>Jeyasriankum</t>
+    <t>sri.jeyakl@kmail.com</t>
+  </si>
+  <si>
+    <t>Jeyasriankuna</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4B186D-8DAC-4595-92C4-42CBE2C28B7E}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>52</v>
@@ -1564,36 +1564,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1622,92 +1622,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1732,30 +1732,30 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>80</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1805,28 +1805,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1844,7 +1844,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>70</v>
@@ -1856,229 +1856,229 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2090,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A01BC43-3B25-4999-80D4-B8C3A43EB297}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,13 +2105,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -2125,27 +2125,27 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2177,34 +2177,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2213,172 +2213,172 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2386,61 +2386,61 @@
         <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="H9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2469,54 +2469,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
